--- a/Bot2/MacroSheet.xlsx
+++ b/Bot2/MacroSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Automation Anywhere Files\Automation Anywhere\My Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F755ED-4BB1-450E-BE43-EBE8443C468D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,24 +483,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -519,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,7 +540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -559,7 +560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,7 +580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -599,7 +600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -619,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -639,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -659,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -679,7 +680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -699,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -719,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -739,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -759,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -779,7 +780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -799,7 +800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -819,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -839,7 +840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -859,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -879,7 +880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -899,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -919,7 +920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -939,7 +940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -959,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>

--- a/Bot2/MacroSheet.xlsx
+++ b/Bot2/MacroSheet.xlsx
@@ -1,105 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F755ED-4BB1-450E-BE43-EBE8443C468D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE5BD3E-1AF5-419B-AC0B-FA60682D44EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
   <si>
-    <t>Bank Name</t>
-  </si>
-  <si>
-    <t>Macro Name</t>
-  </si>
-  <si>
     <t>Sr.
 No</t>
   </si>
   <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Gate Way</t>
+  </si>
+  <si>
+    <t>RRN</t>
+  </si>
+  <si>
+    <t>Macro Name</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
     <t>PPBL</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Wallet:: refunded - ARN/PRN available - 1st response_UPI - PPBL , Remitter - PPBL</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>PPBEX</t>
+  </si>
+  <si>
+    <t>PPBLC</t>
+  </si>
+  <si>
+    <t>Paytm Bank</t>
+  </si>
+  <si>
+    <t>Paytm Payments Bank</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Wallet:: ARN/PRN not available - 1st response_UPI - PPBL, Remitter - PPBL</t>
   </si>
   <si>
     <t>Non PPBL</t>
   </si>
   <si>
-    <t>UPI</t>
+    <t>Wallet:: Refunded - ARN/PRN available - 1st response_Non PPBL</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>DC</t>
   </si>
   <si>
     <t>CC</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Payment Mode</t>
-  </si>
-  <si>
-    <t>Gate Way</t>
-  </si>
-  <si>
-    <t>RRN</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>Paytm</t>
-  </si>
-  <si>
-    <t>PPBEX</t>
-  </si>
-  <si>
-    <t>PPBLC</t>
-  </si>
-  <si>
-    <t>Paytm Bank</t>
-  </si>
-  <si>
-    <t>Paytm Payments Bank</t>
-  </si>
-  <si>
-    <t>Wallet:: refunded - ARN/PRN available - 1st response_UPI - PPBL , Remitter - PPBL</t>
-  </si>
-  <si>
-    <t>Wallet:: ARN/PRN not available - 1st response_UPI - PPBL, Remitter - PPBL</t>
-  </si>
-  <si>
-    <t>Wallet:: Refunded - ARN/PRN available - 1st response_Non PPBL</t>
   </si>
 </sst>
 </file>
@@ -111,7 +101,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,13 +109,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -158,16 +147,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -230,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,26 +252,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -315,23 +287,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,11 +429,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -486,503 +436,503 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>22</v>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>22</v>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Bot2/MacroSheet.xlsx
+++ b/Bot2/MacroSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE5BD3E-1AF5-419B-AC0B-FA60682D44EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43EEAD6-8917-4259-8BC7-E8B3399CB849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
